--- a/AIS/SPARC4_Spectral_Response/Channel 4/ccd.xlsx
+++ b/AIS/SPARC4_Spectral_Response/Channel 4/ccd.xlsx
@@ -20,9 +20,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">ccd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t xml:space="preserve">Wavelength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmitance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(nm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">350.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">450.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">550.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">750.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">850.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">900.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">950.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1050.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1100.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34</t>
   </si>
 </sst>
 </file>
@@ -110,17 +215,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -140,82 +257,172 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.83"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>1</v>
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/AIS/SPARC4_Spectral_Response/Channel 4/ccd.xlsx
+++ b/AIS/SPARC4_Spectral_Response/Channel 4/ccd.xlsx
@@ -37,97 +37,97 @@
     <t xml:space="preserve">350.0</t>
   </si>
   <si>
-    <t xml:space="preserve">71.33</t>
+    <t xml:space="preserve">39.60</t>
   </si>
   <si>
     <t xml:space="preserve">400.0</t>
   </si>
   <si>
-    <t xml:space="preserve">79.5</t>
+    <t xml:space="preserve">61.93</t>
   </si>
   <si>
     <t xml:space="preserve">450.0</t>
   </si>
   <si>
-    <t xml:space="preserve">88.78</t>
+    <t xml:space="preserve">75.66</t>
   </si>
   <si>
     <t xml:space="preserve">500.0</t>
   </si>
   <si>
-    <t xml:space="preserve">96.43</t>
+    <t xml:space="preserve">87.12</t>
   </si>
   <si>
     <t xml:space="preserve">550.0</t>
   </si>
   <si>
-    <t xml:space="preserve">89.44</t>
+    <t xml:space="preserve">88.20</t>
   </si>
   <si>
     <t xml:space="preserve">600.0</t>
   </si>
   <si>
-    <t xml:space="preserve">88.56</t>
+    <t xml:space="preserve">88.67</t>
   </si>
   <si>
     <t xml:space="preserve">650.0</t>
   </si>
   <si>
-    <t xml:space="preserve">82.91</t>
+    <t xml:space="preserve">87.36</t>
   </si>
   <si>
     <t xml:space="preserve">700.0</t>
   </si>
   <si>
-    <t xml:space="preserve">69.85</t>
+    <t xml:space="preserve">86.55</t>
   </si>
   <si>
     <t xml:space="preserve">750.0</t>
   </si>
   <si>
-    <t xml:space="preserve">63.45</t>
+    <t xml:space="preserve">76.48</t>
   </si>
   <si>
     <t xml:space="preserve">800.0</t>
   </si>
   <si>
-    <t xml:space="preserve">57.65</t>
+    <t xml:space="preserve">64.63</t>
   </si>
   <si>
     <t xml:space="preserve">850.0</t>
   </si>
   <si>
-    <t xml:space="preserve">40.06</t>
+    <t xml:space="preserve">48.95</t>
   </si>
   <si>
     <t xml:space="preserve">900.0</t>
   </si>
   <si>
-    <t xml:space="preserve">26.09</t>
+    <t xml:space="preserve">32.34</t>
   </si>
   <si>
     <t xml:space="preserve">950.0</t>
   </si>
   <si>
-    <t xml:space="preserve">13.91</t>
+    <t xml:space="preserve">17.37</t>
   </si>
   <si>
     <t xml:space="preserve">1000.0</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65</t>
+    <t xml:space="preserve">6.60</t>
   </si>
   <si>
     <t xml:space="preserve">1050.0</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4</t>
+    <t xml:space="preserve">1.49</t>
   </si>
   <si>
     <t xml:space="preserve">1100.0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34</t>
+    <t xml:space="preserve">0.38</t>
   </si>
 </sst>
 </file>
@@ -260,10 +260,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.83"/>
   </cols>
@@ -292,7 +292,7 @@
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4"/>
@@ -302,7 +302,7 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4"/>
@@ -312,7 +312,7 @@
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4"/>
@@ -322,7 +322,7 @@
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -330,7 +330,7 @@
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -338,7 +338,7 @@
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -346,7 +346,7 @@
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -354,7 +354,7 @@
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -362,7 +362,7 @@
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -370,7 +370,7 @@
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -378,7 +378,7 @@
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -386,7 +386,7 @@
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -394,7 +394,7 @@
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -402,7 +402,7 @@
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -410,7 +410,7 @@
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -418,7 +418,7 @@
       <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
     </row>
